--- a/Dataset_3.xlsx
+++ b/Dataset_3.xlsx
@@ -23,15 +23,15 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 6" guid="{F4AB5271-EA15-4F2F-B43B-6B840E246E71}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 8" guid="{3C1CB096-70F5-45BA-87A8-813C334F0951}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 6" guid="{F4AB5271-EA15-4F2F-B43B-6B840E246E71}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -30631,6 +30631,34 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="ENG"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000"/>
+    </customSheetView>
+    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Applied Sciences Common"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000"/>
+    </customSheetView>
     <customSheetView guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:Q559">
@@ -30643,34 +30671,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000"/>
-    </customSheetView>
-    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Applied Sciences Common"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000"/>
-    </customSheetView>
-    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="ENG"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset_3.xlsx
+++ b/Dataset_3.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Originally Sorted Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Originally Sorted Data'!$A$1:$AA$561</definedName>
     <definedName name="Z_0361CDA2_459E_478D_98F1_A68A40DCE167_.wvu.FilterData" localSheetId="0" hidden="1">'Originally Sorted Data'!$H$1:$H$1000</definedName>
     <definedName name="Z_28806038_5AA6_4B9F_8F5E_FED46EAA6727_.wvu.FilterData" localSheetId="0" hidden="1">'Originally Sorted Data'!$G$1:$G$1000</definedName>
     <definedName name="Z_488F4A75_70D6_4836_9A8A_FC8B108F6644_.wvu.FilterData" localSheetId="0" hidden="1">'Originally Sorted Data'!$A$1:$Q$559</definedName>
@@ -23,21 +24,21 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 8" guid="{3C1CB096-70F5-45BA-87A8-813C334F0951}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 6" guid="{F4AB5271-EA15-4F2F-B43B-6B840E246E71}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 8" guid="{3C1CB096-70F5-45BA-87A8-813C334F0951}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="1210">
   <si>
     <t>date</t>
   </si>
@@ -3664,6 +3665,9 @@
   </si>
   <si>
     <t>Applied Sciences Common</t>
+  </si>
+  <si>
+    <t>ASP`</t>
   </si>
 </sst>
 </file>
@@ -3968,12 +3972,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4053,7 +4059,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44859</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44859</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44859</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44859</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44859</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44879</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44859</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44859</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44859</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44859</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44859</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44859</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44859</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44859</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44859</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44859</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44859</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44861</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44865</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44859</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44859</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44859</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44859</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44859</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44868</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44870</v>
       </c>
@@ -5315,10 +5321,10 @@
         <v>94</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>1208</v>
+        <v>59</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1207</v>
       </c>
       <c r="I30" s="5">
         <v>4</v>
@@ -5339,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44859</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44865</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44861</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44880</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44879</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44859</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44861</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44859</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44865</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44873</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44865</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44865</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44865</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44882</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44873</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44861</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44861</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44860</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44860</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44860</v>
       </c>
@@ -6327,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44859</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44862</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44860</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44868</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44881</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44860</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44860</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44860</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44860</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44860</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44860</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44860</v>
       </c>
@@ -6856,7 +6862,7 @@
       </c>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44860</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44866</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44860</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44861</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44861</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44869</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44861</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44861</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44882</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44863</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>44875</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44866</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44873</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44861</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44861</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44861</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44861</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44869</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44869</v>
       </c>
@@ -7702,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44865</v>
       </c>
@@ -7746,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44861</v>
       </c>
@@ -7790,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44867</v>
       </c>
@@ -7837,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44867</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44880</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44874</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44862</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44862</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44862</v>
       </c>
@@ -8112,7 +8118,7 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44862</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44862</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44862</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44862</v>
       </c>
@@ -8289,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44861</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44870</v>
       </c>
@@ -8380,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44859</v>
       </c>
@@ -8424,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44874</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44862</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44884</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44875</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>44862</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44862</v>
       </c>
@@ -8694,7 +8700,7 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44874</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>44862</v>
       </c>
@@ -8782,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44876</v>
       </c>
@@ -8829,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44862</v>
       </c>
@@ -8873,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44862</v>
       </c>
@@ -8918,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44862</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44882</v>
       </c>
@@ -9006,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44862</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>44860</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44883</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44866</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44862</v>
       </c>
@@ -9227,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44862</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44862</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44885</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>44862</v>
       </c>
@@ -9407,7 +9413,7 @@
       </c>
       <c r="P121" s="5"/>
     </row>
-    <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44870</v>
       </c>
@@ -9454,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44870</v>
       </c>
@@ -9498,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44882</v>
       </c>
@@ -9545,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44874</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44863</v>
       </c>
@@ -9636,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44863</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44860</v>
       </c>
@@ -9724,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44870</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44885</v>
       </c>
@@ -9815,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44863</v>
       </c>
@@ -9859,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>44863</v>
       </c>
@@ -9904,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44863</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44865</v>
       </c>
@@ -9993,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44865</v>
       </c>
@@ -10037,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44865</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>44865</v>
       </c>
@@ -10125,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44865</v>
       </c>
@@ -10170,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44865</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44865</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44876</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44865</v>
       </c>
@@ -10346,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44869</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44862</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>44869</v>
       </c>
@@ -10481,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44865</v>
       </c>
@@ -10569,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>44863</v>
       </c>
@@ -10616,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44865</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44880</v>
       </c>
@@ -10705,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44877</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44865</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44865</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44865</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44865</v>
       </c>
@@ -10925,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44865</v>
       </c>
@@ -10969,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44874</v>
       </c>
@@ -11016,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44865</v>
       </c>
@@ -11061,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44865</v>
       </c>
@@ -11081,10 +11087,10 @@
         <v>402</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>1208</v>
+        <v>1209</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>1207</v>
       </c>
       <c r="I159" s="5">
         <v>4</v>
@@ -11105,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44859</v>
       </c>
@@ -11152,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44863</v>
       </c>
@@ -11196,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44865</v>
       </c>
@@ -11241,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44865</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44865</v>
       </c>
@@ -11374,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44879</v>
       </c>
@@ -11418,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44865</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44873</v>
       </c>
@@ -11506,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44880</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44867</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44869</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>44877</v>
       </c>
@@ -11685,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44859</v>
       </c>
@@ -11732,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44880</v>
       </c>
@@ -11779,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44874</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44866</v>
       </c>
@@ -11867,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44866</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>44866</v>
       </c>
@@ -11956,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>44866</v>
       </c>
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44874</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44863</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44876</v>
       </c>
@@ -12133,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44866</v>
       </c>
@@ -12177,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44879</v>
       </c>
@@ -12221,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44866</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44866</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44866</v>
       </c>
@@ -12401,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44866</v>
       </c>
@@ -12447,7 +12453,7 @@
       </c>
       <c r="P189" s="5"/>
     </row>
-    <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>44866</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44881</v>
       </c>
@@ -12535,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44877</v>
       </c>
@@ -12579,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44866</v>
       </c>
@@ -12623,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44877</v>
       </c>
@@ -12667,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44866</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44866</v>
       </c>
@@ -12755,7 +12761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>44879</v>
       </c>
@@ -12799,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44876</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44859</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44873</v>
       </c>
@@ -12934,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44867</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44867</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>44867</v>
       </c>
@@ -13066,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44867</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>44867</v>
       </c>
@@ -13154,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>44876</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>44873</v>
       </c>
@@ -13242,7 +13248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>44883</v>
       </c>
@@ -13286,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44880</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44868</v>
       </c>
@@ -13374,7 +13380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44883</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>44859</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>44862</v>
       </c>
@@ -13506,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44867</v>
       </c>
@@ -13594,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44867</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44867</v>
       </c>
@@ -13682,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44867</v>
       </c>
@@ -13726,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44874</v>
       </c>
@@ -13770,7 +13776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>44867</v>
       </c>
@@ -13815,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44880</v>
       </c>
@@ -13862,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44867</v>
       </c>
@@ -13907,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44867</v>
       </c>
@@ -13952,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44868</v>
       </c>
@@ -13996,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>44867</v>
       </c>
@@ -14040,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44882</v>
       </c>
@@ -14084,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44880</v>
       </c>
@@ -14128,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44867</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>44859</v>
       </c>
@@ -14216,7 +14222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44865</v>
       </c>
@@ -14263,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44867</v>
       </c>
@@ -14307,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44868</v>
       </c>
@@ -14351,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44868</v>
       </c>
@@ -14395,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>44883</v>
       </c>
@@ -14442,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44868</v>
       </c>
@@ -14486,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44868</v>
       </c>
@@ -14530,7 +14536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44868</v>
       </c>
@@ -14575,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44861</v>
       </c>
@@ -14619,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44868</v>
       </c>
@@ -14663,7 +14669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44868</v>
       </c>
@@ -14709,7 +14715,7 @@
       <c r="O240" s="5"/>
       <c r="P240" s="5"/>
     </row>
-    <row r="241" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44868</v>
       </c>
@@ -14753,7 +14759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>44868</v>
       </c>
@@ -14797,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44862</v>
       </c>
@@ -14841,7 +14847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44876</v>
       </c>
@@ -14885,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>44876</v>
       </c>
@@ -14929,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44859</v>
       </c>
@@ -14973,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>44868</v>
       </c>
@@ -15017,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>44868</v>
       </c>
@@ -15061,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44869</v>
       </c>
@@ -15105,7 +15111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44869</v>
       </c>
@@ -15149,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>44869</v>
       </c>
@@ -15193,7 +15199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44869</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44869</v>
       </c>
@@ -15282,7 +15288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44869</v>
       </c>
@@ -15326,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>44869</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44869</v>
       </c>
@@ -15415,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44879</v>
       </c>
@@ -15462,7 +15468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44869</v>
       </c>
@@ -15507,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44867</v>
       </c>
@@ -15551,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44869</v>
       </c>
@@ -15595,7 +15601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44859</v>
       </c>
@@ -15639,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44869</v>
       </c>
@@ -15683,7 +15689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44869</v>
       </c>
@@ -15727,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44869</v>
       </c>
@@ -15771,7 +15777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44869</v>
       </c>
@@ -15815,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44869</v>
       </c>
@@ -15859,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44869</v>
       </c>
@@ -15903,7 +15909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>44879</v>
       </c>
@@ -15947,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44881</v>
       </c>
@@ -15991,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44869</v>
       </c>
@@ -16036,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44869</v>
       </c>
@@ -16081,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44866</v>
       </c>
@@ -16125,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>44859</v>
       </c>
@@ -16169,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44881</v>
       </c>
@@ -16213,7 +16219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44876</v>
       </c>
@@ -16257,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44885</v>
       </c>
@@ -16301,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44876</v>
       </c>
@@ -16345,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44883</v>
       </c>
@@ -16389,7 +16395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44869</v>
       </c>
@@ -16433,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44869</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>44870</v>
       </c>
@@ -16521,7 +16527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44883</v>
       </c>
@@ -16565,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>44862</v>
       </c>
@@ -16655,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44870</v>
       </c>
@@ -16747,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44870</v>
       </c>
@@ -16792,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44870</v>
       </c>
@@ -16836,7 +16842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>44870</v>
       </c>
@@ -16856,10 +16862,10 @@
         <v>149</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>276</v>
+        <v>713</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I289" s="5">
         <v>4</v>
@@ -16880,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>44870</v>
       </c>
@@ -16924,7 +16930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44880</v>
       </c>
@@ -16968,7 +16974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>44870</v>
       </c>
@@ -17012,7 +17018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44870</v>
       </c>
@@ -17056,7 +17062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44879</v>
       </c>
@@ -17100,7 +17106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44876</v>
       </c>
@@ -17191,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>44870</v>
       </c>
@@ -17235,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44873</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44873</v>
       </c>
@@ -17324,7 +17330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>44873</v>
       </c>
@@ -17368,7 +17374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>44865</v>
       </c>
@@ -17412,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44859</v>
       </c>
@@ -17456,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>44879</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>44867</v>
       </c>
@@ -17544,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44865</v>
       </c>
@@ -17588,7 +17594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44873</v>
       </c>
@@ -17721,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>44859</v>
       </c>
@@ -17765,7 +17771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44861</v>
       </c>
@@ -17809,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>44862</v>
       </c>
@@ -17853,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44862</v>
       </c>
@@ -17897,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>44865</v>
       </c>
@@ -17941,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44873</v>
       </c>
@@ -18030,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44873</v>
       </c>
@@ -18074,7 +18080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>44875</v>
       </c>
@@ -18118,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>44873</v>
       </c>
@@ -18162,7 +18168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44873</v>
       </c>
@@ -18207,7 +18213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>44873</v>
       </c>
@@ -18251,7 +18257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>44867</v>
       </c>
@@ -18295,7 +18301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44873</v>
       </c>
@@ -18340,7 +18346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>44873</v>
       </c>
@@ -18385,7 +18391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>44882</v>
       </c>
@@ -18473,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>44873</v>
       </c>
@@ -18517,7 +18523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44867</v>
       </c>
@@ -18605,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44874</v>
       </c>
@@ -18649,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>44859</v>
       </c>
@@ -18693,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>44865</v>
       </c>
@@ -18737,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44874</v>
       </c>
@@ -18781,7 +18787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>44874</v>
       </c>
@@ -18825,7 +18831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>44874</v>
       </c>
@@ -18869,7 +18875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>44874</v>
       </c>
@@ -18913,7 +18919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>44874</v>
       </c>
@@ -18957,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44859</v>
       </c>
@@ -19001,7 +19007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>44874</v>
       </c>
@@ -19045,7 +19051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>44874</v>
       </c>
@@ -19090,7 +19096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44866</v>
       </c>
@@ -19224,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>44879</v>
       </c>
@@ -19268,7 +19274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>44874</v>
       </c>
@@ -19316,7 +19322,7 @@
       </c>
       <c r="P344" s="5"/>
     </row>
-    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>44859</v>
       </c>
@@ -19360,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>44874</v>
       </c>
@@ -19404,7 +19410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>44879</v>
       </c>
@@ -19448,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>44862</v>
       </c>
@@ -19492,7 +19498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>44874</v>
       </c>
@@ -19536,7 +19542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>44874</v>
       </c>
@@ -19580,7 +19586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>44880</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>44874</v>
       </c>
@@ -19669,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>44869</v>
       </c>
@@ -19713,7 +19719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>44861</v>
       </c>
@@ -19757,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>44874</v>
       </c>
@@ -19801,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>44874</v>
       </c>
@@ -19845,7 +19851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>44860</v>
       </c>
@@ -19889,7 +19895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44874</v>
       </c>
@@ -19933,7 +19939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>44867</v>
       </c>
@@ -19977,7 +19983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>44862</v>
       </c>
@@ -20021,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>44866</v>
       </c>
@@ -20109,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>44875</v>
       </c>
@@ -20153,7 +20159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>44875</v>
       </c>
@@ -20198,7 +20204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>44875</v>
       </c>
@@ -20242,7 +20248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>44875</v>
       </c>
@@ -20286,7 +20292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>44875</v>
       </c>
@@ -20332,7 +20338,7 @@
       <c r="O367" s="5"/>
       <c r="P367" s="5"/>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>44875</v>
       </c>
@@ -20377,7 +20383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>44874</v>
       </c>
@@ -20465,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>44875</v>
       </c>
@@ -20509,7 +20515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>44875</v>
       </c>
@@ -20553,7 +20559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>44875</v>
       </c>
@@ -20597,7 +20603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>44875</v>
       </c>
@@ -20642,7 +20648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>44875</v>
       </c>
@@ -20688,7 +20694,7 @@
       <c r="O375" s="5"/>
       <c r="P375" s="5"/>
     </row>
-    <row r="376" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>44865</v>
       </c>
@@ -20732,7 +20738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44867</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44869</v>
       </c>
@@ -20820,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>44875</v>
       </c>
@@ -20864,7 +20870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>44869</v>
       </c>
@@ -20908,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>44875</v>
       </c>
@@ -20952,7 +20958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>44873</v>
       </c>
@@ -20996,7 +21002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>44875</v>
       </c>
@@ -21040,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>44875</v>
       </c>
@@ -21130,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>44875</v>
       </c>
@@ -21178,7 +21184,7 @@
       </c>
       <c r="P386" s="5"/>
     </row>
-    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44876</v>
       </c>
@@ -21222,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>44876</v>
       </c>
@@ -21266,7 +21272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44876</v>
       </c>
@@ -21310,7 +21316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44876</v>
       </c>
@@ -21354,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44862</v>
       </c>
@@ -21398,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44876</v>
       </c>
@@ -21442,7 +21448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44876</v>
       </c>
@@ -21486,7 +21492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44876</v>
       </c>
@@ -21530,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>44869</v>
       </c>
@@ -21574,7 +21580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44876</v>
       </c>
@@ -21619,7 +21625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44869</v>
       </c>
@@ -21663,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44883</v>
       </c>
@@ -21707,7 +21713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44865</v>
       </c>
@@ -21751,7 +21757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44860</v>
       </c>
@@ -21795,7 +21801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44867</v>
       </c>
@@ -21839,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44876</v>
       </c>
@@ -21859,10 +21865,10 @@
         <v>85</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H402" s="9" t="s">
-        <v>1207</v>
+        <v>276</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>1208</v>
       </c>
       <c r="I402" s="5">
         <v>4</v>
@@ -21883,7 +21889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44876</v>
       </c>
@@ -21927,7 +21933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>44876</v>
       </c>
@@ -21971,7 +21977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44876</v>
       </c>
@@ -22015,7 +22021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>44876</v>
       </c>
@@ -22059,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44876</v>
       </c>
@@ -22103,7 +22109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44863</v>
       </c>
@@ -22147,7 +22153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44875</v>
       </c>
@@ -22191,7 +22197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44876</v>
       </c>
@@ -22235,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44859</v>
       </c>
@@ -22323,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>44870</v>
       </c>
@@ -22411,7 +22417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44882</v>
       </c>
@@ -22455,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>44877</v>
       </c>
@@ -22499,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44877</v>
       </c>
@@ -22543,7 +22549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44877</v>
       </c>
@@ -22587,7 +22593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44877</v>
       </c>
@@ -22631,7 +22637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44862</v>
       </c>
@@ -22675,7 +22681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>44877</v>
       </c>
@@ -22719,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44873</v>
       </c>
@@ -22807,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>44874</v>
       </c>
@@ -22851,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>44866</v>
       </c>
@@ -22941,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>44877</v>
       </c>
@@ -22989,7 +22995,7 @@
       </c>
       <c r="P427" s="5"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44875</v>
       </c>
@@ -23033,7 +23039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>44879</v>
       </c>
@@ -23077,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>44879</v>
       </c>
@@ -23122,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>44879</v>
       </c>
@@ -23166,7 +23172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>44873</v>
       </c>
@@ -23210,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>44879</v>
       </c>
@@ -23254,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>44860</v>
       </c>
@@ -23298,7 +23304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>44879</v>
       </c>
@@ -23342,7 +23348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>44861</v>
       </c>
@@ -23386,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44879</v>
       </c>
@@ -23430,7 +23436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>44873</v>
       </c>
@@ -23474,7 +23480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44881</v>
       </c>
@@ -23518,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>44879</v>
       </c>
@@ -23564,7 +23570,7 @@
       </c>
       <c r="P440" s="5"/>
     </row>
-    <row r="441" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>44873</v>
       </c>
@@ -23608,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44875</v>
       </c>
@@ -23652,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>44883</v>
       </c>
@@ -23696,7 +23702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>44867</v>
       </c>
@@ -23740,7 +23746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44879</v>
       </c>
@@ -23784,7 +23790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>44874</v>
       </c>
@@ -23828,7 +23834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44879</v>
       </c>
@@ -23872,7 +23878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>44879</v>
       </c>
@@ -23916,7 +23922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44879</v>
       </c>
@@ -23960,7 +23966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>44879</v>
       </c>
@@ -24049,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>44876</v>
       </c>
@@ -24093,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>44879</v>
       </c>
@@ -24138,7 +24144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44879</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>44875</v>
       </c>
@@ -24226,7 +24232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44859</v>
       </c>
@@ -24270,7 +24276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44867</v>
       </c>
@@ -24314,7 +24320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44879</v>
       </c>
@@ -24358,7 +24364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>44877</v>
       </c>
@@ -24402,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44873</v>
       </c>
@@ -24446,7 +24452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>44879</v>
       </c>
@@ -24490,7 +24496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>44873</v>
       </c>
@@ -24534,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44884</v>
       </c>
@@ -24578,7 +24584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>44879</v>
       </c>
@@ -24622,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44866</v>
       </c>
@@ -24666,7 +24672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>44880</v>
       </c>
@@ -24710,7 +24716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44880</v>
       </c>
@@ -24755,7 +24761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>44861</v>
       </c>
@@ -24799,7 +24805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>44880</v>
       </c>
@@ -24843,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>44859</v>
       </c>
@@ -24887,7 +24893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44877</v>
       </c>
@@ -24931,7 +24937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>44880</v>
       </c>
@@ -25019,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>44866</v>
       </c>
@@ -25063,7 +25069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44869</v>
       </c>
@@ -25107,7 +25113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>44880</v>
       </c>
@@ -25151,7 +25157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44879</v>
       </c>
@@ -25195,7 +25201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>44880</v>
       </c>
@@ -25239,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>44876</v>
       </c>
@@ -25283,7 +25289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>44880</v>
       </c>
@@ -25327,7 +25333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44881</v>
       </c>
@@ -25371,7 +25377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>44880</v>
       </c>
@@ -25415,7 +25421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>44861</v>
       </c>
@@ -25459,7 +25465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>44880</v>
       </c>
@@ -25503,7 +25509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>44880</v>
       </c>
@@ -25547,7 +25553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>44880</v>
       </c>
@@ -25635,7 +25641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>44873</v>
       </c>
@@ -25723,7 +25729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>44866</v>
       </c>
@@ -25811,7 +25817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>44881</v>
       </c>
@@ -25855,7 +25861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>44881</v>
       </c>
@@ -25900,7 +25906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>44881</v>
       </c>
@@ -25946,7 +25952,7 @@
       <c r="O494" s="5"/>
       <c r="P494" s="5"/>
     </row>
-    <row r="495" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>44883</v>
       </c>
@@ -25990,7 +25996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>44881</v>
       </c>
@@ -26010,10 +26016,10 @@
         <v>85</v>
       </c>
       <c r="G496" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H496" s="9" t="s">
-        <v>1207</v>
+        <v>276</v>
+      </c>
+      <c r="H496" s="12" t="s">
+        <v>1208</v>
       </c>
       <c r="I496" s="5">
         <v>4</v>
@@ -26034,7 +26040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>44881</v>
       </c>
@@ -26078,7 +26084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>44881</v>
       </c>
@@ -26123,7 +26129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>44881</v>
       </c>
@@ -26167,7 +26173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>44881</v>
       </c>
@@ -26211,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>44862</v>
       </c>
@@ -26255,7 +26261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>44880</v>
       </c>
@@ -26299,7 +26305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>44884</v>
       </c>
@@ -26343,7 +26349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>44881</v>
       </c>
@@ -26387,7 +26393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>44881</v>
       </c>
@@ -26431,7 +26437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>44879</v>
       </c>
@@ -26475,7 +26481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>44880</v>
       </c>
@@ -26519,7 +26525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>44879</v>
       </c>
@@ -26563,7 +26569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>44881</v>
       </c>
@@ -26607,7 +26613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>44881</v>
       </c>
@@ -26651,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>44881</v>
       </c>
@@ -26699,7 +26705,7 @@
       </c>
       <c r="P511" s="5"/>
     </row>
-    <row r="512" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>44873</v>
       </c>
@@ -26743,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>44884</v>
       </c>
@@ -26787,7 +26793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>44882</v>
       </c>
@@ -26831,7 +26837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>44882</v>
       </c>
@@ -26875,7 +26881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>44882</v>
       </c>
@@ -26919,7 +26925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>44882</v>
       </c>
@@ -26964,7 +26970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>44865</v>
       </c>
@@ -27008,7 +27014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>44880</v>
       </c>
@@ -27055,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>44879</v>
       </c>
@@ -27099,7 +27105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>44883</v>
       </c>
@@ -27143,7 +27149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>44881</v>
       </c>
@@ -27187,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>44879</v>
       </c>
@@ -27231,7 +27237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>44873</v>
       </c>
@@ -27275,7 +27281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>44876</v>
       </c>
@@ -27319,7 +27325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>44883</v>
       </c>
@@ -27363,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>44880</v>
       </c>
@@ -27407,7 +27413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>44883</v>
       </c>
@@ -27451,7 +27457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>44883</v>
       </c>
@@ -27495,7 +27501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>44883</v>
       </c>
@@ -27539,7 +27545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>44867</v>
       </c>
@@ -27583,7 +27589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>44883</v>
       </c>
@@ -27627,7 +27633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>44861</v>
       </c>
@@ -27671,7 +27677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>44883</v>
       </c>
@@ -27715,7 +27721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>44883</v>
       </c>
@@ -27735,10 +27741,10 @@
         <v>85</v>
       </c>
       <c r="G535" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H535" s="9" t="s">
-        <v>1207</v>
+        <v>276</v>
+      </c>
+      <c r="H535" s="12" t="s">
+        <v>1208</v>
       </c>
       <c r="I535" s="5">
         <v>4</v>
@@ -27759,7 +27765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>44883</v>
       </c>
@@ -27803,7 +27809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>44883</v>
       </c>
@@ -27847,7 +27853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>44876</v>
       </c>
@@ -27891,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>44883</v>
       </c>
@@ -27979,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>44883</v>
       </c>
@@ -28023,7 +28029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>44865</v>
       </c>
@@ -28067,7 +28073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>44868</v>
       </c>
@@ -28111,7 +28117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>44883</v>
       </c>
@@ -28155,7 +28161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>44883</v>
       </c>
@@ -28199,7 +28205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>44883</v>
       </c>
@@ -28243,7 +28249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>44883</v>
       </c>
@@ -28287,7 +28293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>44868</v>
       </c>
@@ -28331,7 +28337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>44883</v>
       </c>
@@ -28375,7 +28381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>44873</v>
       </c>
@@ -28419,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>44863</v>
       </c>
@@ -28463,7 +28469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>44859</v>
       </c>
@@ -28507,7 +28513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>44884</v>
       </c>
@@ -28551,7 +28557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>44865</v>
       </c>
@@ -28595,7 +28601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>44884</v>
       </c>
@@ -28688,7 +28694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>44885</v>
       </c>
@@ -28736,7 +28742,7 @@
       </c>
       <c r="P557" s="5"/>
     </row>
-    <row r="558" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>44873</v>
       </c>
@@ -28824,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>44862</v>
       </c>
@@ -28868,7 +28874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>44885</v>
       </c>
@@ -30630,35 +30636,14 @@
       <c r="K1000" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA561">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="ASP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="ENG"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000"/>
-    </customSheetView>
-    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Applied Sciences Common"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000"/>
-    </customSheetView>
     <customSheetView guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:Q559">
@@ -30671,6 +30656,34 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000"/>
+    </customSheetView>
+    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Applied Sciences Common"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000"/>
+    </customSheetView>
+    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="ENG"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset_3.xlsx
+++ b/Dataset_3.xlsx
@@ -24,21 +24,21 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 6" guid="{F4AB5271-EA15-4F2F-B43B-6B840E246E71}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 8" guid="{3C1CB096-70F5-45BA-87A8-813C334F0951}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 5" guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 7" guid="{FB3AE7C3-D052-4B12-AA72-95985E41AFEB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASP,ASB" guid="{5BABF35B-82F1-4844-BCE3-9BA113053F6C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 6" guid="{F4AB5271-EA15-4F2F-B43B-6B840E246E71}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="1209">
   <si>
     <t>date</t>
   </si>
@@ -3665,9 +3665,6 @@
   </si>
   <si>
     <t>Applied Sciences Common</t>
-  </si>
-  <si>
-    <t>ASP`</t>
   </si>
 </sst>
 </file>
@@ -3972,13 +3969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H177" sqref="H177"/>
+      <selection activeCell="G562" sqref="G562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4059,7 +4056,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44859</v>
       </c>
@@ -4103,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44859</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44859</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44859</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44859</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44879</v>
       </c>
@@ -4324,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44859</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44859</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44859</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44859</v>
       </c>
@@ -4500,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44859</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44859</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44859</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44859</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44859</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44859</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44859</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44861</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44865</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44859</v>
       </c>
@@ -4989,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44859</v>
       </c>
@@ -5033,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44859</v>
       </c>
@@ -5077,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44859</v>
       </c>
@@ -5122,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44859</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44868</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44870</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44859</v>
       </c>
@@ -5392,7 +5389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44865</v>
       </c>
@@ -5436,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44861</v>
       </c>
@@ -5480,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44880</v>
       </c>
@@ -5525,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44879</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44859</v>
       </c>
@@ -5701,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44861</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44859</v>
       </c>
@@ -5792,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44865</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44873</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44865</v>
       </c>
@@ -5927,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44865</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44865</v>
       </c>
@@ -6015,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44882</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44873</v>
       </c>
@@ -6106,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44861</v>
       </c>
@@ -6153,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44861</v>
       </c>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44860</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44860</v>
       </c>
@@ -6289,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44860</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44859</v>
       </c>
@@ -6377,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44862</v>
       </c>
@@ -6421,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44860</v>
       </c>
@@ -6465,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44868</v>
       </c>
@@ -6509,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44881</v>
       </c>
@@ -6553,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44860</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44860</v>
       </c>
@@ -6641,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44860</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44860</v>
       </c>
@@ -6729,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44860</v>
       </c>
@@ -6773,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44860</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44860</v>
       </c>
@@ -6862,7 +6859,7 @@
       </c>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44860</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44866</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44860</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44861</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44861</v>
       </c>
@@ -7085,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44869</v>
       </c>
@@ -7129,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44861</v>
       </c>
@@ -7173,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44861</v>
       </c>
@@ -7217,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44882</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44863</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>44875</v>
       </c>
@@ -7349,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44866</v>
       </c>
@@ -7396,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44873</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44861</v>
       </c>
@@ -7484,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44861</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44861</v>
       </c>
@@ -7572,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44861</v>
       </c>
@@ -7617,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44869</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44869</v>
       </c>
@@ -7708,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44865</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44861</v>
       </c>
@@ -7796,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44867</v>
       </c>
@@ -7843,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44867</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44880</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44874</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44862</v>
       </c>
@@ -8028,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44862</v>
       </c>
@@ -8072,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44862</v>
       </c>
@@ -8118,7 +8115,7 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44862</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44862</v>
       </c>
@@ -8206,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44862</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44862</v>
       </c>
@@ -8295,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44861</v>
       </c>
@@ -8342,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44870</v>
       </c>
@@ -8386,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44859</v>
       </c>
@@ -8430,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44874</v>
       </c>
@@ -8477,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44862</v>
       </c>
@@ -8522,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44884</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44875</v>
       </c>
@@ -8610,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>44862</v>
       </c>
@@ -8654,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44862</v>
       </c>
@@ -8700,7 +8697,7 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44874</v>
       </c>
@@ -8744,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>44862</v>
       </c>
@@ -8788,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44876</v>
       </c>
@@ -8835,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44862</v>
       </c>
@@ -8879,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44862</v>
       </c>
@@ -8924,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44862</v>
       </c>
@@ -8968,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44882</v>
       </c>
@@ -9012,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44862</v>
       </c>
@@ -9057,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>44860</v>
       </c>
@@ -9101,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44883</v>
       </c>
@@ -9145,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44866</v>
       </c>
@@ -9189,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44862</v>
       </c>
@@ -9233,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44862</v>
       </c>
@@ -9277,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44862</v>
       </c>
@@ -9321,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44885</v>
       </c>
@@ -9365,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>44862</v>
       </c>
@@ -9413,7 +9410,7 @@
       </c>
       <c r="P121" s="5"/>
     </row>
-    <row r="122" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44870</v>
       </c>
@@ -9460,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44870</v>
       </c>
@@ -9504,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44882</v>
       </c>
@@ -9551,7 +9548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44874</v>
       </c>
@@ -9598,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44863</v>
       </c>
@@ -9642,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44863</v>
       </c>
@@ -9686,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44860</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44870</v>
       </c>
@@ -9774,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44885</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44863</v>
       </c>
@@ -9865,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>44863</v>
       </c>
@@ -9910,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44863</v>
       </c>
@@ -9955,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44865</v>
       </c>
@@ -9999,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44865</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44865</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>44865</v>
       </c>
@@ -10131,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44865</v>
       </c>
@@ -10176,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44865</v>
       </c>
@@ -10220,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44865</v>
       </c>
@@ -10264,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44876</v>
       </c>
@@ -10308,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44865</v>
       </c>
@@ -10352,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44869</v>
       </c>
@@ -10396,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44862</v>
       </c>
@@ -10440,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>44869</v>
       </c>
@@ -10487,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44865</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>44863</v>
       </c>
@@ -10622,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44865</v>
       </c>
@@ -10667,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44880</v>
       </c>
@@ -10711,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44877</v>
       </c>
@@ -10755,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44865</v>
       </c>
@@ -10799,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44865</v>
       </c>
@@ -10843,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44865</v>
       </c>
@@ -10887,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44865</v>
       </c>
@@ -10931,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44865</v>
       </c>
@@ -10975,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44874</v>
       </c>
@@ -11022,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44865</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44865</v>
       </c>
@@ -11087,7 +11084,7 @@
         <v>402</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>1209</v>
+        <v>59</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>1207</v>
@@ -11111,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44859</v>
       </c>
@@ -11158,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44863</v>
       </c>
@@ -11202,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44865</v>
       </c>
@@ -11247,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44865</v>
       </c>
@@ -11292,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44865</v>
       </c>
@@ -11380,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44879</v>
       </c>
@@ -11424,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44865</v>
       </c>
@@ -11468,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44873</v>
       </c>
@@ -11512,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44880</v>
       </c>
@@ -11556,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44867</v>
       </c>
@@ -11600,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44869</v>
       </c>
@@ -11644,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>44877</v>
       </c>
@@ -11691,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44859</v>
       </c>
@@ -11738,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44880</v>
       </c>
@@ -11785,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44874</v>
       </c>
@@ -11829,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44866</v>
       </c>
@@ -11873,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44866</v>
       </c>
@@ -11918,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>44866</v>
       </c>
@@ -11962,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>44866</v>
       </c>
@@ -12006,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44874</v>
       </c>
@@ -12050,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44863</v>
       </c>
@@ -12095,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44876</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44866</v>
       </c>
@@ -12183,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44879</v>
       </c>
@@ -12227,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44866</v>
       </c>
@@ -12271,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44866</v>
       </c>
@@ -12316,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44866</v>
       </c>
@@ -12407,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44866</v>
       </c>
@@ -12453,7 +12450,7 @@
       </c>
       <c r="P189" s="5"/>
     </row>
-    <row r="190" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>44866</v>
       </c>
@@ -12497,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44881</v>
       </c>
@@ -12541,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44877</v>
       </c>
@@ -12585,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44866</v>
       </c>
@@ -12629,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44877</v>
       </c>
@@ -12673,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44866</v>
       </c>
@@ -12717,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44866</v>
       </c>
@@ -12761,7 +12758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>44879</v>
       </c>
@@ -12805,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44876</v>
       </c>
@@ -12849,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44859</v>
       </c>
@@ -12893,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44873</v>
       </c>
@@ -12940,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44867</v>
       </c>
@@ -12984,7 +12981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44867</v>
       </c>
@@ -13028,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>44867</v>
       </c>
@@ -13072,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44867</v>
       </c>
@@ -13116,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>44867</v>
       </c>
@@ -13160,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>44876</v>
       </c>
@@ -13204,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>44873</v>
       </c>
@@ -13248,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>44883</v>
       </c>
@@ -13292,7 +13289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44880</v>
       </c>
@@ -13336,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44868</v>
       </c>
@@ -13380,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44883</v>
       </c>
@@ -13424,7 +13421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>44859</v>
       </c>
@@ -13468,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>44862</v>
       </c>
@@ -13512,7 +13509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44867</v>
       </c>
@@ -13600,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44867</v>
       </c>
@@ -13644,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44867</v>
       </c>
@@ -13688,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44867</v>
       </c>
@@ -13732,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44874</v>
       </c>
@@ -13776,7 +13773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>44867</v>
       </c>
@@ -13821,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44880</v>
       </c>
@@ -13868,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44867</v>
       </c>
@@ -13913,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44867</v>
       </c>
@@ -13958,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44868</v>
       </c>
@@ -14002,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>44867</v>
       </c>
@@ -14046,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44882</v>
       </c>
@@ -14090,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44880</v>
       </c>
@@ -14134,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44867</v>
       </c>
@@ -14178,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>44859</v>
       </c>
@@ -14222,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44865</v>
       </c>
@@ -14269,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44867</v>
       </c>
@@ -14313,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44868</v>
       </c>
@@ -14357,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44868</v>
       </c>
@@ -14401,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>44883</v>
       </c>
@@ -14448,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44868</v>
       </c>
@@ -14492,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44868</v>
       </c>
@@ -14536,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44868</v>
       </c>
@@ -14581,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44861</v>
       </c>
@@ -14625,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44868</v>
       </c>
@@ -14669,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44868</v>
       </c>
@@ -14715,7 +14712,7 @@
       <c r="O240" s="5"/>
       <c r="P240" s="5"/>
     </row>
-    <row r="241" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44868</v>
       </c>
@@ -14759,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>44868</v>
       </c>
@@ -14803,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44862</v>
       </c>
@@ -14847,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44876</v>
       </c>
@@ -14891,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>44876</v>
       </c>
@@ -14935,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44859</v>
       </c>
@@ -14979,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>44868</v>
       </c>
@@ -15023,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>44868</v>
       </c>
@@ -15067,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44869</v>
       </c>
@@ -15111,7 +15108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44869</v>
       </c>
@@ -15155,7 +15152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>44869</v>
       </c>
@@ -15199,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44869</v>
       </c>
@@ -15244,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44869</v>
       </c>
@@ -15288,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44869</v>
       </c>
@@ -15332,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>44869</v>
       </c>
@@ -15376,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44869</v>
       </c>
@@ -15421,7 +15418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44879</v>
       </c>
@@ -15468,7 +15465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44869</v>
       </c>
@@ -15513,7 +15510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44867</v>
       </c>
@@ -15557,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44869</v>
       </c>
@@ -15601,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44859</v>
       </c>
@@ -15645,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44869</v>
       </c>
@@ -15689,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44869</v>
       </c>
@@ -15733,7 +15730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44869</v>
       </c>
@@ -15777,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44869</v>
       </c>
@@ -15821,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44869</v>
       </c>
@@ -15865,7 +15862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44869</v>
       </c>
@@ -15909,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>44879</v>
       </c>
@@ -15953,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44881</v>
       </c>
@@ -15997,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44869</v>
       </c>
@@ -16042,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44869</v>
       </c>
@@ -16087,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44866</v>
       </c>
@@ -16131,7 +16128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>44859</v>
       </c>
@@ -16175,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44881</v>
       </c>
@@ -16219,7 +16216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44876</v>
       </c>
@@ -16263,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44885</v>
       </c>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44876</v>
       </c>
@@ -16351,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44883</v>
       </c>
@@ -16395,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44869</v>
       </c>
@@ -16439,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44869</v>
       </c>
@@ -16483,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>44870</v>
       </c>
@@ -16527,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44883</v>
       </c>
@@ -16571,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>44862</v>
       </c>
@@ -16661,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44870</v>
       </c>
@@ -16753,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44870</v>
       </c>
@@ -16798,7 +16795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44870</v>
       </c>
@@ -16842,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>44870</v>
       </c>
@@ -16886,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>44870</v>
       </c>
@@ -16930,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44880</v>
       </c>
@@ -16974,7 +16971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>44870</v>
       </c>
@@ -17018,7 +17015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44870</v>
       </c>
@@ -17062,7 +17059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44879</v>
       </c>
@@ -17106,7 +17103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44876</v>
       </c>
@@ -17197,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>44870</v>
       </c>
@@ -17241,7 +17238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44873</v>
       </c>
@@ -17285,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44873</v>
       </c>
@@ -17330,7 +17327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>44873</v>
       </c>
@@ -17374,7 +17371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>44865</v>
       </c>
@@ -17418,7 +17415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44859</v>
       </c>
@@ -17462,7 +17459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>44879</v>
       </c>
@@ -17506,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>44867</v>
       </c>
@@ -17550,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44865</v>
       </c>
@@ -17594,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44873</v>
       </c>
@@ -17727,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>44859</v>
       </c>
@@ -17771,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44861</v>
       </c>
@@ -17815,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>44862</v>
       </c>
@@ -17859,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44862</v>
       </c>
@@ -17903,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>44865</v>
       </c>
@@ -17947,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44873</v>
       </c>
@@ -18036,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44873</v>
       </c>
@@ -18080,7 +18077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>44875</v>
       </c>
@@ -18124,7 +18121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>44873</v>
       </c>
@@ -18168,7 +18165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44873</v>
       </c>
@@ -18213,7 +18210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>44873</v>
       </c>
@@ -18257,7 +18254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>44867</v>
       </c>
@@ -18301,7 +18298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44873</v>
       </c>
@@ -18346,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>44873</v>
       </c>
@@ -18391,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>44882</v>
       </c>
@@ -18479,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>44873</v>
       </c>
@@ -18523,7 +18520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44867</v>
       </c>
@@ -18611,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44874</v>
       </c>
@@ -18655,7 +18652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>44859</v>
       </c>
@@ -18699,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>44865</v>
       </c>
@@ -18743,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44874</v>
       </c>
@@ -18787,7 +18784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>44874</v>
       </c>
@@ -18831,7 +18828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>44874</v>
       </c>
@@ -18875,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>44874</v>
       </c>
@@ -18919,7 +18916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>44874</v>
       </c>
@@ -18963,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44859</v>
       </c>
@@ -19007,7 +19004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>44874</v>
       </c>
@@ -19051,7 +19048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>44874</v>
       </c>
@@ -19096,7 +19093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44866</v>
       </c>
@@ -19230,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>44879</v>
       </c>
@@ -19274,7 +19271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>44874</v>
       </c>
@@ -19322,7 +19319,7 @@
       </c>
       <c r="P344" s="5"/>
     </row>
-    <row r="345" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>44859</v>
       </c>
@@ -19366,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>44874</v>
       </c>
@@ -19410,7 +19407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>44879</v>
       </c>
@@ -19454,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>44862</v>
       </c>
@@ -19498,7 +19495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>44874</v>
       </c>
@@ -19542,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>44874</v>
       </c>
@@ -19586,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>44880</v>
       </c>
@@ -19630,7 +19627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>44874</v>
       </c>
@@ -19675,7 +19672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>44869</v>
       </c>
@@ -19719,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>44861</v>
       </c>
@@ -19763,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>44874</v>
       </c>
@@ -19807,7 +19804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>44874</v>
       </c>
@@ -19851,7 +19848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>44860</v>
       </c>
@@ -19895,7 +19892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44874</v>
       </c>
@@ -19939,7 +19936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>44867</v>
       </c>
@@ -19983,7 +19980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>44862</v>
       </c>
@@ -20027,7 +20024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>44866</v>
       </c>
@@ -20115,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>44875</v>
       </c>
@@ -20159,7 +20156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>44875</v>
       </c>
@@ -20204,7 +20201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>44875</v>
       </c>
@@ -20248,7 +20245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>44875</v>
       </c>
@@ -20292,7 +20289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>44875</v>
       </c>
@@ -20338,7 +20335,7 @@
       <c r="O367" s="5"/>
       <c r="P367" s="5"/>
     </row>
-    <row r="368" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>44875</v>
       </c>
@@ -20383,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>44874</v>
       </c>
@@ -20471,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>44875</v>
       </c>
@@ -20515,7 +20512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>44875</v>
       </c>
@@ -20559,7 +20556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>44875</v>
       </c>
@@ -20603,7 +20600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>44875</v>
       </c>
@@ -20648,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>44875</v>
       </c>
@@ -20694,7 +20691,7 @@
       <c r="O375" s="5"/>
       <c r="P375" s="5"/>
     </row>
-    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>44865</v>
       </c>
@@ -20738,7 +20735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44867</v>
       </c>
@@ -20782,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44869</v>
       </c>
@@ -20826,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>44875</v>
       </c>
@@ -20870,7 +20867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>44869</v>
       </c>
@@ -20914,7 +20911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>44875</v>
       </c>
@@ -20958,7 +20955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>44873</v>
       </c>
@@ -21002,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>44875</v>
       </c>
@@ -21046,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>44875</v>
       </c>
@@ -21136,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>44875</v>
       </c>
@@ -21184,7 +21181,7 @@
       </c>
       <c r="P386" s="5"/>
     </row>
-    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44876</v>
       </c>
@@ -21228,7 +21225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>44876</v>
       </c>
@@ -21272,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44876</v>
       </c>
@@ -21316,7 +21313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44876</v>
       </c>
@@ -21360,7 +21357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44862</v>
       </c>
@@ -21404,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44876</v>
       </c>
@@ -21448,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44876</v>
       </c>
@@ -21492,7 +21489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44876</v>
       </c>
@@ -21536,7 +21533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>44869</v>
       </c>
@@ -21580,7 +21577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44876</v>
       </c>
@@ -21625,7 +21622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44869</v>
       </c>
@@ -21669,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44883</v>
       </c>
@@ -21713,7 +21710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44865</v>
       </c>
@@ -21757,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44860</v>
       </c>
@@ -21801,7 +21798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44867</v>
       </c>
@@ -21845,7 +21842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44876</v>
       </c>
@@ -21889,7 +21886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44876</v>
       </c>
@@ -21933,7 +21930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>44876</v>
       </c>
@@ -21977,7 +21974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44876</v>
       </c>
@@ -22021,7 +22018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>44876</v>
       </c>
@@ -22065,7 +22062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44876</v>
       </c>
@@ -22109,7 +22106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44863</v>
       </c>
@@ -22153,7 +22150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44875</v>
       </c>
@@ -22197,7 +22194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44876</v>
       </c>
@@ -22241,7 +22238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44859</v>
       </c>
@@ -22329,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>44870</v>
       </c>
@@ -22417,7 +22414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44882</v>
       </c>
@@ -22461,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>44877</v>
       </c>
@@ -22505,7 +22502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44877</v>
       </c>
@@ -22549,7 +22546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44877</v>
       </c>
@@ -22593,7 +22590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44877</v>
       </c>
@@ -22637,7 +22634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44862</v>
       </c>
@@ -22681,7 +22678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>44877</v>
       </c>
@@ -22725,7 +22722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44873</v>
       </c>
@@ -22813,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>44874</v>
       </c>
@@ -22857,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>44866</v>
       </c>
@@ -22947,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>44877</v>
       </c>
@@ -22995,7 +22992,7 @@
       </c>
       <c r="P427" s="5"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44875</v>
       </c>
@@ -23039,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>44879</v>
       </c>
@@ -23083,7 +23080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>44879</v>
       </c>
@@ -23128,7 +23125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>44879</v>
       </c>
@@ -23172,7 +23169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>44873</v>
       </c>
@@ -23216,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>44879</v>
       </c>
@@ -23260,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>44860</v>
       </c>
@@ -23304,7 +23301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>44879</v>
       </c>
@@ -23348,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>44861</v>
       </c>
@@ -23392,7 +23389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44879</v>
       </c>
@@ -23436,7 +23433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>44873</v>
       </c>
@@ -23480,7 +23477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44881</v>
       </c>
@@ -23524,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>44879</v>
       </c>
@@ -23570,7 +23567,7 @@
       </c>
       <c r="P440" s="5"/>
     </row>
-    <row r="441" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>44873</v>
       </c>
@@ -23614,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44875</v>
       </c>
@@ -23658,7 +23655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>44883</v>
       </c>
@@ -23702,7 +23699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>44867</v>
       </c>
@@ -23746,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44879</v>
       </c>
@@ -23790,7 +23787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>44874</v>
       </c>
@@ -23834,7 +23831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44879</v>
       </c>
@@ -23878,7 +23875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>44879</v>
       </c>
@@ -23922,7 +23919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44879</v>
       </c>
@@ -23966,7 +23963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>44879</v>
       </c>
@@ -24055,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>44876</v>
       </c>
@@ -24099,7 +24096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>44879</v>
       </c>
@@ -24144,7 +24141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44879</v>
       </c>
@@ -24188,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>44875</v>
       </c>
@@ -24232,7 +24229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44859</v>
       </c>
@@ -24276,7 +24273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44867</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44879</v>
       </c>
@@ -24364,7 +24361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>44877</v>
       </c>
@@ -24408,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44873</v>
       </c>
@@ -24452,7 +24449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>44879</v>
       </c>
@@ -24496,7 +24493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>44873</v>
       </c>
@@ -24540,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44884</v>
       </c>
@@ -24584,7 +24581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>44879</v>
       </c>
@@ -24628,7 +24625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44866</v>
       </c>
@@ -24672,7 +24669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>44880</v>
       </c>
@@ -24716,7 +24713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44880</v>
       </c>
@@ -24761,7 +24758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>44861</v>
       </c>
@@ -24805,7 +24802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>44880</v>
       </c>
@@ -24849,7 +24846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>44859</v>
       </c>
@@ -24893,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44877</v>
       </c>
@@ -24937,7 +24934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>44880</v>
       </c>
@@ -25025,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>44866</v>
       </c>
@@ -25069,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44869</v>
       </c>
@@ -25113,7 +25110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>44880</v>
       </c>
@@ -25157,7 +25154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44879</v>
       </c>
@@ -25201,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>44880</v>
       </c>
@@ -25245,7 +25242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>44876</v>
       </c>
@@ -25289,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>44880</v>
       </c>
@@ -25333,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44881</v>
       </c>
@@ -25377,7 +25374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>44880</v>
       </c>
@@ -25421,7 +25418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>44861</v>
       </c>
@@ -25465,7 +25462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>44880</v>
       </c>
@@ -25509,7 +25506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>44880</v>
       </c>
@@ -25553,7 +25550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>44880</v>
       </c>
@@ -25641,7 +25638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>44873</v>
       </c>
@@ -25729,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>44866</v>
       </c>
@@ -25817,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>44881</v>
       </c>
@@ -25861,7 +25858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>44881</v>
       </c>
@@ -25906,7 +25903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>44881</v>
       </c>
@@ -25952,7 +25949,7 @@
       <c r="O494" s="5"/>
       <c r="P494" s="5"/>
     </row>
-    <row r="495" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>44883</v>
       </c>
@@ -25996,7 +25993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>44881</v>
       </c>
@@ -26040,7 +26037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>44881</v>
       </c>
@@ -26084,7 +26081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>44881</v>
       </c>
@@ -26129,7 +26126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>44881</v>
       </c>
@@ -26173,7 +26170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>44881</v>
       </c>
@@ -26217,7 +26214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>44862</v>
       </c>
@@ -26261,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>44880</v>
       </c>
@@ -26305,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>44884</v>
       </c>
@@ -26349,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>44881</v>
       </c>
@@ -26393,7 +26390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>44881</v>
       </c>
@@ -26437,7 +26434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>44879</v>
       </c>
@@ -26481,7 +26478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>44880</v>
       </c>
@@ -26525,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>44879</v>
       </c>
@@ -26569,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>44881</v>
       </c>
@@ -26613,7 +26610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>44881</v>
       </c>
@@ -26657,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>44881</v>
       </c>
@@ -26705,7 +26702,7 @@
       </c>
       <c r="P511" s="5"/>
     </row>
-    <row r="512" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>44873</v>
       </c>
@@ -26749,7 +26746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>44884</v>
       </c>
@@ -26793,7 +26790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>44882</v>
       </c>
@@ -26837,7 +26834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>44882</v>
       </c>
@@ -26881,7 +26878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>44882</v>
       </c>
@@ -26925,7 +26922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>44882</v>
       </c>
@@ -26970,7 +26967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>44865</v>
       </c>
@@ -27014,7 +27011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>44880</v>
       </c>
@@ -27061,7 +27058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>44879</v>
       </c>
@@ -27105,7 +27102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>44883</v>
       </c>
@@ -27149,7 +27146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>44881</v>
       </c>
@@ -27193,7 +27190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>44879</v>
       </c>
@@ -27237,7 +27234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>44873</v>
       </c>
@@ -27281,7 +27278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>44876</v>
       </c>
@@ -27325,7 +27322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>44883</v>
       </c>
@@ -27369,7 +27366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>44880</v>
       </c>
@@ -27413,7 +27410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>44883</v>
       </c>
@@ -27457,7 +27454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>44883</v>
       </c>
@@ -27501,7 +27498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>44883</v>
       </c>
@@ -27545,7 +27542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>44867</v>
       </c>
@@ -27589,7 +27586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>44883</v>
       </c>
@@ -27633,7 +27630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>44861</v>
       </c>
@@ -27677,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>44883</v>
       </c>
@@ -27721,7 +27718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>44883</v>
       </c>
@@ -27765,7 +27762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>44883</v>
       </c>
@@ -27809,7 +27806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>44883</v>
       </c>
@@ -27853,7 +27850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>44876</v>
       </c>
@@ -27897,7 +27894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>44883</v>
       </c>
@@ -27985,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>44883</v>
       </c>
@@ -28029,7 +28026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>44865</v>
       </c>
@@ -28073,7 +28070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>44868</v>
       </c>
@@ -28117,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>44883</v>
       </c>
@@ -28161,7 +28158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>44883</v>
       </c>
@@ -28205,7 +28202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>44883</v>
       </c>
@@ -28249,7 +28246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>44883</v>
       </c>
@@ -28293,7 +28290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>44868</v>
       </c>
@@ -28337,7 +28334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>44883</v>
       </c>
@@ -28381,7 +28378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>44873</v>
       </c>
@@ -28425,7 +28422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>44863</v>
       </c>
@@ -28469,7 +28466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>44859</v>
       </c>
@@ -28513,7 +28510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>44884</v>
       </c>
@@ -28557,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>44865</v>
       </c>
@@ -28601,7 +28598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>44884</v>
       </c>
@@ -28694,7 +28691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>44885</v>
       </c>
@@ -28742,7 +28739,7 @@
       </c>
       <c r="P557" s="5"/>
     </row>
-    <row r="558" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>44873</v>
       </c>
@@ -28830,7 +28827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>44862</v>
       </c>
@@ -28874,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>44885</v>
       </c>
@@ -30636,14 +30633,36 @@
       <c r="K1000" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA561">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ASP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA561"/>
   <customSheetViews>
+    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="ENG"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000"/>
+    </customSheetView>
+    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="H1:H1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Applied Sciences Common"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="G1:G1000"/>
+    </customSheetView>
     <customSheetView guid="{488F4A75-70D6-4836-9A8A-FC8B108F6644}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:Q559">
@@ -30656,34 +30675,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{96B29087-97A0-458F-B2CB-2A2281C55B25}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000"/>
-    </customSheetView>
-    <customSheetView guid="{50986A54-D687-4FA0-828D-AEB8ADACBBF8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Applied Sciences Common"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{0361CDA2-459E-478D-98F1-A68A40DCE167}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="H1:H1000"/>
-    </customSheetView>
-    <customSheetView guid="{28806038-5AA6-4B9F-8F5E-FED46EAA6727}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="G1:G1000">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="ENG"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
